--- a/LR2/LR2/bin/Debug/products.xlsx
+++ b/LR2/LR2/bin/Debug/products.xlsx
@@ -28,7 +28,7 @@
     <x:t>ExcelProduct1</x:t>
   </x:si>
   <x:si>
-    <x:t>02.10.2024 22:42:31</x:t>
+    <x:t>11.10.2024 17:52:00</x:t>
   </x:si>
   <x:si>
     <x:t>ExcelProduct2</x:t>
